--- a/scripts/Monitoramento/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A6073E99F4A136E9DBB1841CD04F527CF06FF619" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D91653-8A47-4C47-93CE-110AEF5D1E84}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_8A04E72574AD12E352CA6A48DBD23F1DD8AF994E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A14C32AB-5E81-4CDC-9323-D62AF1AAE736}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="444">
   <si>
     <t>Categoria</t>
   </si>
@@ -1350,10 +1350,28 @@
     <t>04/12/2025</t>
   </si>
   <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
     <t>01/12/2025</t>
   </si>
   <si>
     <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>Técnico foi demitido</t>
+  </si>
+  <si>
+    <t>07/12/2025</t>
+  </si>
+  <si>
+    <t>Lauriane Mariara Kolosviski</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -2027,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2348,23 +2366,59 @@
     <xf numFmtId="0" fontId="18" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="51" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="54" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="52" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2375,40 +2429,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="54" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="53" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4358,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4465,7 +4486,7 @@
       </c>
       <c r="L2" s="42">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M2" s="42">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
@@ -4473,7 +4494,7 @@
       </c>
       <c r="N2" s="43">
         <f ca="1">SUM(B2:M2)</f>
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="R2" s="44" t="s">
         <v>17</v>
@@ -4528,7 +4549,7 @@
       </c>
       <c r="L3" s="46">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M3" s="46">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
@@ -4536,7 +4557,7 @@
       </c>
       <c r="N3" s="47">
         <f ca="1">SUM(B3:M3)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="R3" s="48" t="s">
         <v>20</v>
@@ -4717,7 +4738,7 @@
       </c>
       <c r="L6" s="59">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="59">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
@@ -4725,7 +4746,7 @@
       </c>
       <c r="N6" s="60">
         <f ca="1">SUM(B6:M6)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>29</v>
@@ -4884,72 +4905,72 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="125" t="s">
+      <c r="K11" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="134"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="122" t="s">
+      <c r="R11" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="132"/>
-      <c r="T11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="134"/>
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="124" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="119" t="s">
+      <c r="R12" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="133"/>
+      <c r="S12" s="134"/>
       <c r="T12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="70" t="s">
         <v>15</v>
       </c>
@@ -4991,17 +5012,17 @@
         <v>46</v>
       </c>
       <c r="Q13" s="10"/>
-      <c r="R13" s="123" t="str">
+      <c r="R13" s="120" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 10.25</v>
       </c>
-      <c r="S13" s="132"/>
-      <c r="T13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="134"/>
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="134"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="44" t="s">
         <v>17</v>
       </c>
@@ -5032,11 +5053,11 @@
       <c r="J14" s="9"/>
       <c r="K14" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$14"), "Enviado")</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L14" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$14"), "Atrasado")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M14" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$14"), "Atrasado &gt;= 2")</f>
@@ -5048,7 +5069,7 @@
       </c>
       <c r="O14" s="59">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$14"), "Outras Ocorrências")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P14" s="63">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$14"), "Sem Técnico")</f>
@@ -5069,8 +5090,8 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="134"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="48" t="s">
         <v>20</v>
       </c>
@@ -5101,11 +5122,11 @@
       <c r="J15" s="9"/>
       <c r="K15" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$17:$P$26"), "Enviado")</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$17:$P$26"), "Atrasado")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$17:$P$26"), "Atrasado &gt;= 2")</f>
@@ -5138,8 +5159,8 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1">
-      <c r="A16" s="134"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="52" t="s">
         <v>23</v>
       </c>
@@ -5170,11 +5191,11 @@
       <c r="J16" s="9"/>
       <c r="K16" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$29:$P$30"), "Enviado")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$29:$P$30"), "Atrasado")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$29:$P$30"), "Atrasado &gt;= 2")</f>
@@ -5207,8 +5228,8 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
@@ -5239,11 +5260,11 @@
       <c r="J17" s="9"/>
       <c r="K17" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$33:$P$39"), "Enviado")</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$33:$P$39"), "Atrasado")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$33:$P$39"), "Atrasado &gt;= 2")</f>
@@ -5276,8 +5297,8 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="61" t="s">
         <v>29</v>
       </c>
@@ -5308,11 +5329,11 @@
       <c r="J18" s="9"/>
       <c r="K18" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$42:$P$49"), "Enviado")</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L18" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$42:$P$49"), "Atrasado")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M18" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$42:$P$49"), "Atrasado &gt;= 2")</f>
@@ -5345,8 +5366,8 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1">
-      <c r="A19" s="134"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="65" t="s">
         <v>32</v>
       </c>
@@ -5377,11 +5398,11 @@
       <c r="J19" s="9"/>
       <c r="K19" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$52:$P$60"), "Enviado")</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L19" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$52:$P$60"), "Atrasado")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M19" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$52:$P$60"), "Atrasado &gt;= 2")</f>
@@ -5414,8 +5435,8 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A20" s="134"/>
-      <c r="B20" s="135"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="68" t="s">
         <v>34</v>
       </c>
@@ -5446,11 +5467,11 @@
       <c r="J20" s="9"/>
       <c r="K20" s="72">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Enviado")</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L20" s="46">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" s="50">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado &gt;= 2")</f>
@@ -5472,175 +5493,175 @@
       <c r="R20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="129">
+      <c r="S20" s="123">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="T20" s="131"/>
+      <c r="T20" s="132"/>
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A21" s="134"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="124" t="s">
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="124" t="s">
+      <c r="K21" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="134"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="123" t="s">
+      <c r="R21" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="132"/>
-      <c r="T21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1">
-      <c r="A22" s="134"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="119" t="s">
+      <c r="A22" s="135"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="119" t="s">
+      <c r="D22" s="134"/>
+      <c r="E22" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="119" t="s">
+      <c r="F22" s="134"/>
+      <c r="G22" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="133"/>
+      <c r="H22" s="134"/>
       <c r="I22" s="70" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="119" t="s">
+      <c r="K22" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="119" t="s">
+      <c r="L22" s="134"/>
+      <c r="M22" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="133"/>
-      <c r="O22" s="119" t="s">
+      <c r="N22" s="134"/>
+      <c r="O22" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="P22" s="133"/>
+      <c r="P22" s="134"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="11" t="s">
         <v>47</v>
       </c>
       <c r="S22" s="12">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,9,FALSE)</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T22" s="13">
         <f ca="1">S22/SUM($S$22:$S$27)</f>
-        <v>0.84615384615384615</v>
+        <v>0.86713286713286708</v>
       </c>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" s="134"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="121" t="s">
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="115">
+      <c r="D23" s="134"/>
+      <c r="E23" s="110">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="112">
+      <c r="F23" s="134"/>
+      <c r="G23" s="111">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E14, 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="133"/>
+      <c r="H23" s="134"/>
       <c r="I23" s="78">
         <f ca="1">IFERROR(E23/SUM(E23:H23),0)</f>
         <v>1</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="115">
+      <c r="K23" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P14"), "Sim")</f>
-        <v>138</v>
-      </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="112">
+        <v>142</v>
+      </c>
+      <c r="L23" s="134"/>
+      <c r="M23" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P14"), "Não")-SUM(L14:M14)</f>
         <v>6</v>
       </c>
-      <c r="N23" s="133"/>
-      <c r="O23" s="113">
+      <c r="N23" s="134"/>
+      <c r="O23" s="114">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="P23" s="133"/>
+        <v>0.95945945945945943</v>
+      </c>
+      <c r="P23" s="134"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="73" t="s">
         <v>48</v>
       </c>
       <c r="S23" s="46">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,10,FALSE)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T23" s="74">
         <f ca="1">S23/SUM($S$22:$S$27)</f>
-        <v>8.3916083916083919E-2</v>
+        <v>5.5944055944055944E-2</v>
       </c>
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="114" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="115">
+      <c r="D24" s="134"/>
+      <c r="E24" s="110">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="133"/>
-      <c r="G24" s="112">
+      <c r="F24" s="134"/>
+      <c r="G24" s="111">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E15, 0)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="133"/>
+      <c r="H24" s="134"/>
       <c r="I24" s="78">
         <f ca="1">IFERROR(E24/SUM(E24:H24),0)</f>
         <v>0.9</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="115">
+      <c r="K24" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D17:P26"), "Sim")</f>
         <v>97</v>
       </c>
-      <c r="L24" s="133"/>
-      <c r="M24" s="112">
+      <c r="L24" s="134"/>
+      <c r="M24" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D17:P26"), "Não")-SUM(L15:M15)</f>
-        <v>17</v>
-      </c>
-      <c r="N24" s="133"/>
-      <c r="O24" s="113">
+        <v>18</v>
+      </c>
+      <c r="N24" s="134"/>
+      <c r="O24" s="114">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
-        <v>0.85087719298245612</v>
-      </c>
-      <c r="P24" s="133"/>
+        <v>0.84347826086956523</v>
+      </c>
+      <c r="P24" s="134"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="73" t="s">
         <v>49</v>
@@ -5656,42 +5677,42 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="118" t="s">
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="115">
+      <c r="D25" s="134"/>
+      <c r="E25" s="110">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="112">
+      <c r="F25" s="134"/>
+      <c r="G25" s="111">
         <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E16, 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="133"/>
+      <c r="H25" s="134"/>
       <c r="I25" s="78">
         <f ca="1">IFERROR(E25/SUM(E25:H25),0)</f>
         <v>1</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="115">
+      <c r="K25" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D29:P30"), "Sim")</f>
         <v>19</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="112">
+      <c r="L25" s="134"/>
+      <c r="M25" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D29:P30"), "Não")-SUM(L16:M16)</f>
-        <v>3</v>
-      </c>
-      <c r="N25" s="133"/>
-      <c r="O25" s="113">
+        <v>4</v>
+      </c>
+      <c r="N25" s="134"/>
+      <c r="O25" s="114">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="P25" s="133"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="P25" s="134"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="73" t="s">
         <v>50</v>
@@ -5707,93 +5728,93 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="117" t="s">
+      <c r="A26" s="135"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="115">
+      <c r="D26" s="134"/>
+      <c r="E26" s="110">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="112">
+      <c r="F26" s="134"/>
+      <c r="G26" s="111">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E17, 0)</f>
         <v>1</v>
       </c>
-      <c r="H26" s="133"/>
+      <c r="H26" s="134"/>
       <c r="I26" s="78">
         <f ca="1">IFERROR(E26/SUM(E26:H26),0)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="115">
+      <c r="K26" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D33:P39"), "Sim")</f>
         <v>66</v>
       </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="112">
+      <c r="L26" s="134"/>
+      <c r="M26" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D33:P39"), "Não")-SUM(L17:M17)</f>
-        <v>15</v>
-      </c>
-      <c r="N26" s="133"/>
-      <c r="O26" s="113">
+        <v>17</v>
+      </c>
+      <c r="N26" s="134"/>
+      <c r="O26" s="114">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="P26" s="133"/>
+        <v>0.79518072289156627</v>
+      </c>
+      <c r="P26" s="134"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="73" t="s">
         <v>51</v>
       </c>
       <c r="S26" s="59">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,13,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T26" s="77">
         <f ca="1">S26/SUM($S$22:$S$27)</f>
-        <v>6.9930069930069935E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="128" t="s">
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="115">
+      <c r="D27" s="134"/>
+      <c r="E27" s="110">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="F27" s="133"/>
-      <c r="G27" s="112">
+      <c r="F27" s="134"/>
+      <c r="G27" s="111">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E18, 0)</f>
         <v>1</v>
       </c>
-      <c r="H27" s="133"/>
+      <c r="H27" s="134"/>
       <c r="I27" s="78">
         <f ca="1">IFERROR(E27/SUM(E27:H27),0)</f>
         <v>0.875</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="115">
+      <c r="K27" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D42:P49"), "Sim")</f>
-        <v>84</v>
-      </c>
-      <c r="L27" s="133"/>
-      <c r="M27" s="112">
+        <v>89</v>
+      </c>
+      <c r="L27" s="134"/>
+      <c r="M27" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D42:P49"), "Não")-SUM(L18:M18)</f>
-        <v>5</v>
-      </c>
-      <c r="N27" s="133"/>
-      <c r="O27" s="113">
+        <v>4</v>
+      </c>
+      <c r="N27" s="134"/>
+      <c r="O27" s="114">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
-        <v>0.9438202247191011</v>
-      </c>
-      <c r="P27" s="133"/>
+        <v>0.956989247311828</v>
+      </c>
+      <c r="P27" s="134"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="73" t="s">
         <v>31</v>
@@ -5809,90 +5830,90 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="130" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="115">
+      <c r="D28" s="134"/>
+      <c r="E28" s="110">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="112">
+      <c r="F28" s="134"/>
+      <c r="G28" s="111">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E19, 0)</f>
         <v>1</v>
       </c>
-      <c r="H28" s="133"/>
+      <c r="H28" s="134"/>
       <c r="I28" s="78">
         <f ca="1">IFERROR(E28/SUM(E28:H28),0)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="115">
+      <c r="K28" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D52:P60"), "Sim")</f>
         <v>91</v>
       </c>
-      <c r="L28" s="133"/>
-      <c r="M28" s="112">
+      <c r="L28" s="134"/>
+      <c r="M28" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D52:P60"), "Não")-SUM(L19:M19)</f>
-        <v>8</v>
-      </c>
-      <c r="N28" s="133"/>
-      <c r="O28" s="113">
+        <v>12</v>
+      </c>
+      <c r="N28" s="134"/>
+      <c r="O28" s="114">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
-        <v>0.91919191919191923</v>
-      </c>
-      <c r="P28" s="133"/>
+        <v>0.88349514563106801</v>
+      </c>
+      <c r="P28" s="134"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="120">
+      <c r="S28" s="124">
         <f ca="1">VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="T28" s="133"/>
+        <v>0.95945945945945943</v>
+      </c>
+      <c r="T28" s="134"/>
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="136"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="127" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="115">
+      <c r="D29" s="134"/>
+      <c r="E29" s="110">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>4</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="112">
+      <c r="F29" s="134"/>
+      <c r="G29" s="111">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E20, 0)</f>
         <v>4</v>
       </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="134"/>
       <c r="I29" s="78">
         <f ca="1">IFERROR(E29/SUM(E29:H29),0)</f>
         <v>0.5</v>
       </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="115">
+      <c r="K29" s="110">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
         <v>79</v>
       </c>
-      <c r="L29" s="133"/>
-      <c r="M29" s="112">
+      <c r="L29" s="134"/>
+      <c r="M29" s="111">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")-SUM(L20:M20)</f>
-        <v>11</v>
-      </c>
-      <c r="N29" s="133"/>
-      <c r="O29" s="113">
+        <v>15</v>
+      </c>
+      <c r="N29" s="134"/>
+      <c r="O29" s="114">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
-        <v>0.87777777777777777</v>
-      </c>
-      <c r="P29" s="133"/>
+        <v>0.84042553191489366</v>
+      </c>
+      <c r="P29" s="134"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
@@ -5931,10 +5952,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19"/>
-      <c r="C33" s="116" t="s">
+      <c r="C33" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="133"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="79" t="s">
         <v>60</v>
       </c>
@@ -5953,10 +5974,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19"/>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="133"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="81" t="s">
         <v>65</v>
       </c>
@@ -5973,10 +5994,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="19"/>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="133"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="81" t="s">
         <v>65</v>
       </c>
@@ -5993,10 +6014,10 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="133"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="81">
         <f ca="1">B$2+B$5</f>
         <v>52</v>
@@ -6020,10 +6041,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="19"/>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="133"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="81">
         <f ca="1">C$2+C$5</f>
         <v>53</v>
@@ -6047,10 +6068,10 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="19"/>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="133"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="81">
         <f ca="1">D$2+D$5</f>
         <v>53</v>
@@ -6074,10 +6095,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="19"/>
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="133"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="81">
         <f ca="1">E$2+E$5</f>
         <v>52</v>
@@ -6101,10 +6122,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="19"/>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="133"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="81">
         <f ca="1">F$2+F$5</f>
         <v>52</v>
@@ -6128,10 +6149,10 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19"/>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="133"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="81">
         <f ca="1">G$2+G$5</f>
         <v>52</v>
@@ -6155,10 +6176,10 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="19"/>
-      <c r="C42" s="111" t="s">
+      <c r="C42" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="133"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="81">
         <f ca="1">H$2+H$5</f>
         <v>52</v>
@@ -6182,10 +6203,10 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="19"/>
-      <c r="C43" s="111" t="s">
+      <c r="C43" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="133"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="81">
         <f ca="1">I$2+I$5</f>
         <v>53</v>
@@ -6209,10 +6230,10 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="19"/>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="133"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="81">
         <f ca="1">J$2+J$5</f>
         <v>51</v>
@@ -6236,10 +6257,10 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="19"/>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="133"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="81">
         <f ca="1">K$2+K$5</f>
         <v>50</v>
@@ -6263,17 +6284,17 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="19"/>
-      <c r="C46" s="111" t="s">
+      <c r="C46" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="133"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="81">
         <f ca="1">L$2+L$5</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F46" s="81">
         <f ca="1">L$3+L$4</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G46" s="81">
         <f ca="1">L$7</f>
@@ -6281,7 +6302,7 @@
       </c>
       <c r="H46" s="81">
         <f ca="1">L$6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="73">
         <f ca="1">SUM(E46:H46)</f>
@@ -6290,10 +6311,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="19"/>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="133"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="81">
         <f ca="1">M$2+M$5</f>
         <v>0</v>
@@ -6324,19 +6345,54 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A12:B29"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C47:D47"/>
@@ -6353,54 +6409,19 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A12:B29"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
@@ -11971,8 +11992,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13738,7 +13759,7 @@
       <c r="K58" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -13797,9 +13818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14014,10 +14035,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="24"/>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G7" s="33" t="s">
         <v>150</v>
       </c>
@@ -14043,11 +14066,13 @@
         <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="131">
+        <v>45912</v>
+      </c>
       <c r="G8" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -14296,12 +14321,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Carlos Jorge de Oliveira Moreira  </v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="E17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G17" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -14352,10 +14379,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="24"/>
+      <c r="E19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G19" s="33" t="s">
         <v>150</v>
       </c>
@@ -14380,10 +14409,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="24"/>
+      <c r="E20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G20" s="33" t="s">
         <v>150</v>
       </c>
@@ -14551,11 +14582,13 @@
         <v>Rodrigo Lima</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="F26" s="131">
+        <v>45912</v>
+      </c>
       <c r="G26" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -14582,7 +14615,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>148</v>
@@ -14612,10 +14645,10 @@
         <v>16</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -14666,10 +14699,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="24"/>
+      <c r="E30" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G30" s="33" t="s">
         <v>150</v>
       </c>
@@ -14694,12 +14729,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Isadora Bussmann Barsotti </v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="24"/>
+      <c r="E31" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>432</v>
+      </c>
       <c r="G31" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -14752,10 +14789,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gislaine Souza Rosa</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="24"/>
+      <c r="E33" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G33" s="33" t="s">
         <v>150</v>
       </c>
@@ -14896,12 +14935,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Anderson Batista Siqueira </v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="24"/>
+      <c r="E38" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G38" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -14952,10 +14993,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Julliane Gonçalves</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="24"/>
+      <c r="E40" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G40" s="33" t="s">
         <v>150</v>
       </c>
@@ -14980,10 +15023,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Henrique de Andrade</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="24"/>
+      <c r="E41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G41" s="33" t="s">
         <v>150</v>
       </c>
@@ -15008,10 +15053,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="24"/>
+      <c r="E42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>433</v>
+      </c>
       <c r="G42" s="33" t="s">
         <v>150</v>
       </c>
@@ -15064,10 +15111,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudiana Andria</v>
       </c>
-      <c r="E44" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="24"/>
+      <c r="E44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>433</v>
+      </c>
       <c r="G44" s="33" t="s">
         <v>150</v>
       </c>
@@ -15096,7 +15145,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>148</v>
@@ -15122,12 +15171,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E46" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="24"/>
+      <c r="E46" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>433</v>
+      </c>
       <c r="G46" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -15151,11 +15202,11 @@
         <v>Maysa Fernanda Back</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -15238,10 +15289,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="24"/>
+      <c r="E50" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>432</v>
+      </c>
       <c r="G50" s="33" t="s">
         <v>150</v>
       </c>
@@ -15266,12 +15319,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="24"/>
+      <c r="E51" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="G51" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -15294,10 +15349,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maristela de Oliveira Melo</v>
       </c>
-      <c r="E52" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="24"/>
+      <c r="E52" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>433</v>
+      </c>
       <c r="G52" s="33" t="s">
         <v>150</v>
       </c>
@@ -15329,7 +15386,9 @@
       <c r="G53" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24" t="s">
         <v>150</v>
@@ -15406,10 +15465,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Diego Batista </v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="24"/>
+      <c r="E56" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>435</v>
+      </c>
       <c r="G56" s="33" t="s">
         <v>150</v>
       </c>
@@ -15430,9 +15491,8 @@
       <c r="C57" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="24" t="str">
-        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
-        <v>Fernanda Naiara Voinarski</v>
+      <c r="D57" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>19</v>
@@ -15477,7 +15537,7 @@
       <c r="K58" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -15537,7 +15597,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D27" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -17175,7 +17235,7 @@
         <v>141</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>142</v>
@@ -17187,7 +17247,7 @@
         <v>144</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>146</v>
@@ -17201,16 +17261,16 @@
         <v>130</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>150</v>
@@ -17230,7 +17290,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>194</v>
@@ -17239,7 +17299,7 @@
         <v>320</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>150</v>
@@ -17282,7 +17342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19243,7 +19305,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O8" s="84" t="str">
         <f t="array" aca="1" ref="O8" ca="1">IF(
@@ -19518,7 +19580,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O9" s="84" t="str">
         <f t="array" aca="1" ref="O9" ca="1">IF(
@@ -19793,7 +19855,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O10" s="84" t="str">
         <f t="array" aca="1" ref="O10" ca="1">IF(
@@ -20068,7 +20130,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="O11" s="84" t="str">
         <f t="array" aca="1" ref="O11" ca="1">IF(
@@ -21765,7 +21827,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O19" s="84" t="str">
         <f t="array" aca="1" ref="O19" ca="1">IF(
@@ -24292,7 +24354,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O30" s="84" t="str">
         <f t="array" aca="1" ref="O30" ca="1">IF(
@@ -25714,7 +25776,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O37" s="84" t="str">
         <f t="array" aca="1" ref="O37" ca="1">IF(
@@ -25989,7 +26051,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O38" s="84" t="str">
         <f t="array" aca="1" ref="O38" ca="1">IF(
@@ -26586,7 +26648,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O42" s="84" t="str">
         <f t="array" aca="1" ref="O42" ca="1">IF(
@@ -26861,7 +26923,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O43" s="84" t="str">
         <f t="array" aca="1" ref="O43" ca="1">IF(
@@ -27686,7 +27748,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O46" s="84" t="str">
         <f t="array" aca="1" ref="O46" ca="1">IF(
@@ -28236,7 +28298,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O48" s="84" t="str">
         <f t="array" aca="1" ref="O48" ca="1">IF(
@@ -29383,7 +29445,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O54" s="84" t="str">
         <f t="array" aca="1" ref="O54" ca="1">IF(
@@ -29933,7 +29995,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O56" s="84" t="str">
         <f t="array" aca="1" ref="O56" ca="1">IF(
@@ -30758,7 +30820,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O59" s="84" t="str">
         <f t="array" aca="1" ref="O59" ca="1">IF(
@@ -31033,7 +31095,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O60" s="84" t="str">
         <f t="array" aca="1" ref="O60" ca="1">IF(
@@ -32204,7 +32266,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O66" s="84" t="str">
         <f t="array" aca="1" ref="O66" ca="1">IF(
@@ -32487,7 +32549,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O67" s="84" t="str">
         <f t="array" aca="1" ref="O67" ca="1">IF(
@@ -32770,7 +32832,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O68" s="84" t="str">
         <f t="array" aca="1" ref="O68" ca="1">IF(
@@ -33053,7 +33115,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="O69" s="84" t="str">
         <f t="array" aca="1" ref="O69" ca="1">IF(
@@ -35509,7 +35571,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P8" s="73" t="str">
         <f t="array" aca="1" ref="P8" ca="1">IF(
@@ -35806,7 +35868,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P9" s="73" t="str">
         <f t="array" aca="1" ref="P9" ca="1">IF(
@@ -36103,7 +36165,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P10" s="73" t="str">
         <f t="array" aca="1" ref="P10" ca="1">IF(
@@ -36400,7 +36462,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P11" s="73" t="str">
         <f t="array" aca="1" ref="P11" ca="1">IF(
@@ -43504,7 +43566,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P42" s="73" t="str">
         <f t="array" aca="1" ref="P42" ca="1">IF(
@@ -43801,7 +43863,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P43" s="73" t="str">
         <f t="array" aca="1" ref="P43" ca="1">IF(
@@ -44395,7 +44457,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P45" s="73" t="str">
         <f t="array" aca="1" ref="P45" ca="1">IF(
@@ -44692,7 +44754,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P46" s="73" t="str">
         <f t="array" aca="1" ref="P46" ca="1">IF(
@@ -45286,7 +45348,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="P48" s="73" t="str">
         <f t="array" aca="1" ref="P48" ca="1">IF(
